--- a/day035_Excel集計自動化/sales_report.xlsx
+++ b/day035_Excel集計自動化/sales_report.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,86 +447,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gel-Kayano</t>
+          <t>1906L</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>171600</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Air Force1</t>
+          <t>Cloudmonster</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>115500</v>
+        <v>121000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cloud 6</t>
+          <t>Metaspeed</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>93500</v>
+        <v>118800</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NIKE</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cloudtilt</t>
+          <t>AIR MAX90</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>92400</v>
+        <v>115500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vomero</t>
+          <t>Gel-Kayano</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>89320</v>
+        <v>114400</v>
       </c>
     </row>
     <row r="7">
@@ -537,112 +542,117 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mafate</t>
+          <t>Transport 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>89100</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NIKE</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jacket</t>
+          <t>Vomero</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>80772</v>
+        <v>89320</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>HOKA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>Mafate</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>77880</v>
+        <v>89100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gel-NYC</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>74800</v>
+        <v>88223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bondi 9</t>
+          <t>USA 990</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>72600</v>
+        <v>79200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>The Roger</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>72449</v>
+        <v>75900</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Outer</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>71710</v>
+        <v>69287</v>
       </c>
     </row>
     <row r="14">
@@ -653,14 +663,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bottoms</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>69783</v>
+        <v>65451</v>
       </c>
     </row>
     <row r="15">
@@ -671,76 +681,76 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tops</t>
+          <t>Gel-Nunobiki</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>64964</v>
+        <v>61600</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bottoms</t>
+          <t>Outer</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>63057</v>
+        <v>57570</v>
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HOKA</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Metaspeed</t>
+          <t>Hopara</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>59400</v>
+        <v>54450</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>New Balance</t>
-        </is>
-      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Tops</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>50728</v>
+        <v>52182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cloudrock</t>
+          <t>Bags</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>48400</v>
+        <v>52159</v>
       </c>
     </row>
     <row r="20">
@@ -751,50 +761,50 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Caps</t>
+          <t>Outer</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>46566</v>
+        <v>52047</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Jacket</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>46300</v>
+        <v>49572</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tops</t>
+          <t>Air Force1</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>46230</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="23">
@@ -805,7 +815,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Gazelle</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -818,79 +828,79 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Outer</t>
+          <t>DUNK</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>45627</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bags</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>42087</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gel-Nimbus</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>41800</v>
+        <v>45803</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jacket</t>
+          <t>Tops</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>40973</v>
+        <v>43773</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -899,29 +909,34 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>37580</v>
+        <v>42132</v>
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Asics</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hopara</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>36300</v>
+        <v>39708</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>HOKA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -933,13 +948,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>34010</v>
+        <v>39152</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -948,52 +963,47 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>33508</v>
+        <v>36311</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>New Balance</t>
-        </is>
-      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Outer</t>
+          <t>Samba</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>32057</v>
+        <v>31900</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gel-Nunobiki</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>30800</v>
+        <v>31206</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1002,64 +1012,64 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>29849</v>
+        <v>27710</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>574 Core</t>
+          <t>Jacket</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>27940</v>
+        <v>27632</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Tops</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>22610</v>
+        <v>25551</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bottoms</t>
+          <t>Caps</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>16999</v>
+        <v>24642</v>
       </c>
     </row>
     <row r="38">
@@ -1070,64 +1080,69 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CM996</t>
+          <t>Bottoms</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>16940</v>
+        <v>23558</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Air Jordan 1</t>
+          <t>Bottoms</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>16500</v>
+        <v>20799</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
+          <t>Outer</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>20714</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Adidas</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>Jacket</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>16295</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>DUNK</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>15400</v>
+        <v>19853</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>HOKA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1136,206 +1151,150 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>19484</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>3</v>
       </c>
-      <c r="D42" t="n">
-        <v>15129</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Adidas</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Caps</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>4</v>
-      </c>
       <c r="D43" t="n">
-        <v>14474</v>
+        <v>18752</v>
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NIKE</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Stan Smith</t>
+          <t>Air Jordan 1</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>13200</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>New Balance</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Socks</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>14627</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>NIKE</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Socks</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>2</v>
-      </c>
-      <c r="D45" t="n">
-        <v>13150</v>
-      </c>
-    </row>
-    <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tops</t>
+          <t>Bottoms</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>11010</v>
+        <v>13155</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Adidas</t>
-        </is>
-      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tops</t>
+          <t>Bags</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>10903</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jacket</t>
+          <t>Socks</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>10539</v>
+        <v>9256</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bags</t>
+          <t>Tops</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>10419</v>
+        <v>8725</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>HOKA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Caps</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>10292</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>New Balance</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Bags</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>2</v>
-      </c>
-      <c r="D51" t="n">
-        <v>9412</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Bags</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>5120</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Caps</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2911</v>
+        <v>7039</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A52:A53"/>
+  <mergeCells count="7">
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A46:A48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1347,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1383,10 +1342,15 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>color</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>total_sales</t>
         </is>
@@ -1395,38 +1359,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Accessery</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DUNK</t>
+          <t>Bags</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+        <v>9086</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>15400</v>
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>27258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1445,106 +1414,126 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5155</v>
-      </c>
-      <c r="F3" t="n">
+        <v>19853</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
-        <v>5155</v>
+      <c r="H3" t="n">
+        <v>19853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hopara</t>
+          <t>Bottoms</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18150</v>
-      </c>
-      <c r="F4" t="n">
+        <v>11779</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" t="n">
-        <v>36300</v>
+      <c r="H4" t="n">
+        <v>23558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>HOKA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Caps</t>
+          <t>Hopara</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14170</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+        <v>18150</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Red/Yellow</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>14170</v>
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>54450</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Tops</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2700</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+        <v>14044</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>5400</v>
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>42132</v>
       </c>
     </row>
     <row r="7">
@@ -1560,28 +1549,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Socks</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6575</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+        <v>1211</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>13150</v>
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1211</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1600,19 +1594,24 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16295</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+        <v>13816</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>16295</v>
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>27632</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1622,95 +1621,110 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gel-Nunobiki</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>15400</v>
-      </c>
-      <c r="F9" t="n">
+        <v>3117</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="G9" t="n">
-        <v>30800</v>
+      <c r="H9" t="n">
+        <v>6234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>AIR MAX90</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3791</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+        <v>16500</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>11373</v>
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>33000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Caps</t>
+          <t>Tops</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2911</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+        <v>14591</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>2911</v>
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>43773</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1720,23 +1734,28 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Outer</t>
+          <t>Bottoms</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7525</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+        <v>6933</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>7525</v>
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>20799</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1746,33 +1765,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Air Jordan 1</t>
+          <t>Outer</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16500</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+        <v>17349</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>16500</v>
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>52047</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>HOKA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1782,59 +1806,69 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Metaspeed</t>
+          <t>Transport 2</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29700</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+        <v>22000</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Black/White</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>59400</v>
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>66000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bags</t>
+          <t>1906L</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14029</v>
-      </c>
-      <c r="F15" t="n">
+        <v>22000</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>3</v>
       </c>
-      <c r="G15" t="n">
-        <v>42087</v>
+      <c r="H15" t="n">
+        <v>66000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1848,24 +1882,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3103</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+        <v>4273</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>6206</v>
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4273</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1875,23 +1914,28 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>DUNK</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12980</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+        <v>15400</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Black/White</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>38940</v>
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>30800</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1910,148 +1954,173 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4760</v>
-      </c>
-      <c r="F18" t="n">
+        <v>4192</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>3</v>
       </c>
-      <c r="G18" t="n">
-        <v>14280</v>
+      <c r="H18" t="n">
+        <v>12576</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Gel-Kayano</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4992</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+        <v>28600</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>4992</v>
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>57200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Outer</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7226</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+        <v>4173</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>7226</v>
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8346</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Caps</t>
+          <t>Cloudmonster</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14306</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
+        <v>24200</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Black/Red</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>28612</v>
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>24200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Outer</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15209</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+        <v>3261</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>45627</v>
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3261</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2061,59 +2130,69 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bondi 9</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>24200</v>
-      </c>
-      <c r="F23" t="n">
+        <v>15400</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="n">
-        <v>24200</v>
+      <c r="H23" t="n">
+        <v>15400</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Outer</t>
+          <t>Gazelle</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17005</v>
-      </c>
-      <c r="F24" t="n">
+        <v>15400</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>2</v>
       </c>
-      <c r="G24" t="n">
-        <v>34010</v>
+      <c r="H24" t="n">
+        <v>30800</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2123,85 +2202,100 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cloud 6</t>
+          <t>AIR MAX90</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>18700</v>
-      </c>
-      <c r="F25" t="n">
+        <v>16500</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>3</v>
       </c>
-      <c r="G25" t="n">
-        <v>56100</v>
+      <c r="H25" t="n">
+        <v>49500</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bags</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3473</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
+        <v>1034</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>10419</v>
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1034</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Outer</t>
+          <t>Vomero</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>14415</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+        <v>22330</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>14415</v>
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>44660</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2211,38 +2305,43 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jacket</t>
+          <t>Samba</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>17909</v>
-      </c>
-      <c r="F28" t="n">
+        <v>15950</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>2</v>
       </c>
-      <c r="G28" t="n">
-        <v>35818</v>
+      <c r="H28" t="n">
+        <v>31900</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2251,55 +2350,65 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8971</v>
-      </c>
-      <c r="F29" t="n">
+        <v>3481</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>1</v>
       </c>
-      <c r="G29" t="n">
-        <v>8971</v>
+      <c r="H29" t="n">
+        <v>3481</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tops</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8678</v>
-      </c>
-      <c r="F30" t="n">
+        <v>4495</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>3</v>
       </c>
-      <c r="G30" t="n">
-        <v>26034</v>
+      <c r="H30" t="n">
+        <v>13485</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2309,85 +2418,100 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tops</t>
+          <t>Jacket</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5505</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
+        <v>16524</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
       </c>
       <c r="G31" t="n">
-        <v>11010</v>
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>49572</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Outer</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4680</v>
-      </c>
-      <c r="F32" t="n">
+        <v>7374</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
         <v>3</v>
       </c>
-      <c r="G32" t="n">
-        <v>14040</v>
+      <c r="H32" t="n">
+        <v>22122</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Bottoms</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>9040</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
+        <v>4251</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
       </c>
       <c r="G33" t="n">
-        <v>27120</v>
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4251</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2406,29 +2530,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3840</v>
-      </c>
-      <c r="F34" t="n">
+        <v>911</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>2</v>
       </c>
-      <c r="G34" t="n">
-        <v>7680</v>
+      <c r="H34" t="n">
+        <v>1822</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2437,55 +2566,65 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>11347</v>
-      </c>
-      <c r="F35" t="n">
+        <v>1610</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>3</v>
       </c>
-      <c r="G35" t="n">
-        <v>34041</v>
+      <c r="H35" t="n">
+        <v>4830</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Gel-Kayano</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28600</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
+        <v>4858</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
       </c>
       <c r="G36" t="n">
-        <v>85800</v>
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4858</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2495,59 +2634,69 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Stan Smith</t>
+          <t>Metaspeed</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>13200</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
+        <v>29700</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
       </c>
       <c r="G37" t="n">
-        <v>13200</v>
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>59400</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Accessery</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cloudtilt</t>
+          <t>Caps</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>23100</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
+        <v>3259</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
       </c>
       <c r="G38" t="n">
-        <v>46200</v>
+        <v>3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9777</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2561,19 +2710,24 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3714</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
+        <v>2843</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
       </c>
       <c r="G39" t="n">
-        <v>3714</v>
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5686</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2588,28 +2742,33 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Caps</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3139</v>
-      </c>
-      <c r="F40" t="n">
+        <v>13267</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
         <v>2</v>
       </c>
-      <c r="G40" t="n">
-        <v>6278</v>
+      <c r="H40" t="n">
+        <v>26534</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2623,50 +2782,60 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>11979</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3</v>
+        <v>13155</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
       </c>
       <c r="G41" t="n">
-        <v>35937</v>
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>13155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>The Roger</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6503</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
+        <v>25300</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
       </c>
       <c r="G42" t="n">
-        <v>13006</v>
+        <v>3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>75900</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2676,7 +2845,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2685,210 +2854,245 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2446</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2</v>
+        <v>6653</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
       </c>
       <c r="G43" t="n">
-        <v>4892</v>
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6653</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Caps</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3930</v>
-      </c>
-      <c r="F44" t="n">
+        <v>4101</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
         <v>2</v>
       </c>
-      <c r="G44" t="n">
-        <v>7860</v>
+      <c r="H44" t="n">
+        <v>8202</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Caps</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1892</v>
-      </c>
-      <c r="F45" t="n">
+        <v>15400</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
         <v>2</v>
       </c>
-      <c r="G45" t="n">
-        <v>3784</v>
+      <c r="H45" t="n">
+        <v>30800</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Vomero</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22330</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
+        <v>3640</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
       </c>
       <c r="G46" t="n">
-        <v>44660</v>
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10920</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Outer</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3009</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3</v>
+        <v>10357</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
       </c>
       <c r="G47" t="n">
-        <v>9027</v>
+        <v>2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>20714</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Accessery</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Air Force1</t>
+          <t>Bags</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>16500</v>
-      </c>
-      <c r="F48" t="n">
+        <v>7158</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
         <v>2</v>
       </c>
-      <c r="G48" t="n">
-        <v>33000</v>
+      <c r="H48" t="n">
+        <v>14316</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Outer</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>19128</v>
-      </c>
-      <c r="F49" t="n">
+        <v>532</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
         <v>1</v>
       </c>
-      <c r="G49" t="n">
-        <v>19128</v>
+      <c r="H49" t="n">
+        <v>532</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2898,157 +3102,182 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Gel-NYC</t>
+          <t>DUNK</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>18700</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3</v>
+        <v>15400</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Black/White</t>
+        </is>
       </c>
       <c r="G50" t="n">
-        <v>56100</v>
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>15400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>HOKA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tops</t>
+          <t>Mafate</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>10903</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
+        <v>29700</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
       </c>
       <c r="G51" t="n">
-        <v>10903</v>
+        <v>3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>89100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>HOKA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Accessery</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Air Force1</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>16500</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2</v>
+        <v>9388</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
       </c>
       <c r="G52" t="n">
-        <v>33000</v>
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>9388</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>HOKA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CM996</t>
+          <t>Outer</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16940</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
+        <v>19576</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
       </c>
       <c r="G53" t="n">
-        <v>16940</v>
+        <v>2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>39152</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Accessery</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Outer</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>14290</v>
-      </c>
-      <c r="F54" t="n">
-        <v>3</v>
+        <v>14660</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
       </c>
       <c r="G54" t="n">
-        <v>42870</v>
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>14660</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3057,81 +3286,96 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5008</v>
-      </c>
-      <c r="F55" t="n">
+        <v>3124</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
         <v>3</v>
       </c>
-      <c r="G55" t="n">
-        <v>15024</v>
+      <c r="H55" t="n">
+        <v>9372</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Bags</t>
+          <t>USA 990</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5120</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
+        <v>39600</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
       </c>
       <c r="G56" t="n">
-        <v>5120</v>
+        <v>2</v>
+      </c>
+      <c r="H56" t="n">
+        <v>79200</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Cloudtilt</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>23100</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2</v>
+        <v>2452</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
       </c>
       <c r="G57" t="n">
-        <v>46200</v>
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2452</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3146,64 +3390,74 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Cloud 6</t>
+          <t>Cloudmonster</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>18700</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2</v>
+        <v>24200</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Black/Red</t>
+        </is>
       </c>
       <c r="G58" t="n">
-        <v>37400</v>
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>24200</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Bottoms</t>
+          <t>AIR MAX90</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5043</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3</v>
+        <v>16500</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
       </c>
       <c r="G59" t="n">
-        <v>15129</v>
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>33000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3212,24 +3466,29 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1120</v>
-      </c>
-      <c r="F60" t="n">
+        <v>7453</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
         <v>3</v>
       </c>
-      <c r="G60" t="n">
-        <v>3360</v>
+      <c r="H60" t="n">
+        <v>22359</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3239,54 +3498,64 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Gel-NYC</t>
+          <t>Vomero</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>18700</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1</v>
+        <v>22330</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
       </c>
       <c r="G61" t="n">
-        <v>18700</v>
+        <v>2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>44660</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Air Jordan 1</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3330</v>
-      </c>
-      <c r="F62" t="n">
+        <v>16500</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
         <v>1</v>
       </c>
-      <c r="G62" t="n">
-        <v>3330</v>
+      <c r="H62" t="n">
+        <v>16500</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3296,7 +3565,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3305,106 +3574,126 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11569</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2</v>
+        <v>17937</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
       </c>
       <c r="G63" t="n">
-        <v>23138</v>
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>17937</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Bottoms</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>16999</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1</v>
+        <v>994</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
       </c>
       <c r="G64" t="n">
-        <v>16999</v>
+        <v>3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2982</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Accessery</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Socks</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3751</v>
-      </c>
-      <c r="F65" t="n">
+        <v>14627</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
         <v>1</v>
       </c>
-      <c r="G65" t="n">
-        <v>3751</v>
+      <c r="H65" t="n">
+        <v>14627</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tops</t>
+          <t>Gel-Kayano</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>15410</v>
-      </c>
-      <c r="F66" t="n">
-        <v>3</v>
+        <v>28600</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
       </c>
       <c r="G66" t="n">
-        <v>46230</v>
+        <v>2</v>
+      </c>
+      <c r="H66" t="n">
+        <v>57200</v>
       </c>
     </row>
     <row r="67">
@@ -3415,38 +3704,43 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Metaspeed</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>513</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1</v>
+        <v>29700</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
       </c>
       <c r="G67" t="n">
-        <v>513</v>
+        <v>2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>59400</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3460,81 +3754,96 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>889</v>
-      </c>
-      <c r="F68" t="n">
+        <v>1629</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
         <v>2</v>
       </c>
-      <c r="G68" t="n">
-        <v>1778</v>
+      <c r="H68" t="n">
+        <v>3258</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Gel-Kayano</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28600</v>
-      </c>
-      <c r="F69" t="n">
+        <v>2819</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
         <v>3</v>
       </c>
-      <c r="G69" t="n">
-        <v>85800</v>
+      <c r="H69" t="n">
+        <v>8457</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Bags</t>
+          <t>Tops</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1085</v>
-      </c>
-      <c r="F70" t="n">
+        <v>8725</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
         <v>1</v>
       </c>
-      <c r="G70" t="n">
-        <v>1085</v>
+      <c r="H70" t="n">
+        <v>8725</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3544,28 +3853,33 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bottoms</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2172</v>
-      </c>
-      <c r="F71" t="n">
+        <v>5940</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
         <v>2</v>
       </c>
-      <c r="G71" t="n">
-        <v>4344</v>
+      <c r="H71" t="n">
+        <v>11880</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3580,116 +3894,136 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Jacket</t>
+          <t>Tops</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>9852</v>
-      </c>
-      <c r="F72" t="n">
+        <v>17394</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
         <v>3</v>
       </c>
-      <c r="G72" t="n">
-        <v>29556</v>
+      <c r="H72" t="n">
+        <v>52182</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Accessery</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>574 Core</t>
+          <t>Socks</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>13970</v>
-      </c>
-      <c r="F73" t="n">
+        <v>4628</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
         <v>2</v>
       </c>
-      <c r="G73" t="n">
-        <v>27940</v>
+      <c r="H73" t="n">
+        <v>9256</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Bondi 9</t>
+          <t>Tops</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>24200</v>
-      </c>
-      <c r="F74" t="n">
-        <v>2</v>
+        <v>8517</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
       </c>
       <c r="G74" t="n">
-        <v>48400</v>
+        <v>3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>25551</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Gel-Nunobiki</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4009</v>
-      </c>
-      <c r="F75" t="n">
-        <v>3</v>
+        <v>15400</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
       </c>
       <c r="G75" t="n">
-        <v>12027</v>
+        <v>2</v>
+      </c>
+      <c r="H75" t="n">
+        <v>30800</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3699,38 +4033,43 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Accessery</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>Bags</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>12980</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3</v>
+        <v>10585</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
       </c>
       <c r="G76" t="n">
-        <v>38940</v>
+        <v>1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>10585</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3739,81 +4078,96 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6684</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1</v>
+        <v>4701</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
       </c>
       <c r="G77" t="n">
-        <v>6684</v>
+        <v>2</v>
+      </c>
+      <c r="H77" t="n">
+        <v>9402</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tops</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>18790</v>
-      </c>
-      <c r="F78" t="n">
-        <v>2</v>
+        <v>2799</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
       </c>
       <c r="G78" t="n">
-        <v>37580</v>
+        <v>3</v>
+      </c>
+      <c r="H78" t="n">
+        <v>8397</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>HOKA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bottoms</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2903</v>
-      </c>
-      <c r="F79" t="n">
+        <v>19484</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
         <v>1</v>
       </c>
-      <c r="G79" t="n">
-        <v>2903</v>
+      <c r="H79" t="n">
+        <v>19484</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3828,28 +4182,33 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Outer</t>
+          <t>Bottoms</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>7717</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2</v>
+        <v>17857</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
       </c>
       <c r="G80" t="n">
-        <v>15434</v>
+        <v>3</v>
+      </c>
+      <c r="H80" t="n">
+        <v>53571</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3859,28 +4218,33 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Vomero</t>
+          <t>1906L</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>22330</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2</v>
+        <v>22000</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
       </c>
       <c r="G81" t="n">
-        <v>44660</v>
+        <v>3</v>
+      </c>
+      <c r="H81" t="n">
+        <v>66000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3894,86 +4258,101 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4296</v>
-      </c>
-      <c r="F82" t="n">
-        <v>3</v>
+        <v>2996</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
       </c>
       <c r="G82" t="n">
-        <v>12888</v>
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2996</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>HOKA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Accessery</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Outer</t>
+          <t>Caps</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>9712</v>
-      </c>
-      <c r="F83" t="n">
+        <v>7039</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
         <v>1</v>
       </c>
-      <c r="G83" t="n">
-        <v>9712</v>
+      <c r="H83" t="n">
+        <v>7039</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Accessery</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Cloudrock</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>24200</v>
-      </c>
-      <c r="F84" t="n">
+        <v>6108</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
         <v>2</v>
       </c>
-      <c r="G84" t="n">
-        <v>48400</v>
+      <c r="H84" t="n">
+        <v>12216</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3987,210 +4366,245 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>12031</v>
-      </c>
-      <c r="F85" t="n">
+        <v>12321</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
         <v>2</v>
       </c>
-      <c r="G85" t="n">
-        <v>24062</v>
+      <c r="H85" t="n">
+        <v>24642</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Air Force1</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>16500</v>
-      </c>
-      <c r="F86" t="n">
+        <v>3001</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
         <v>3</v>
       </c>
-      <c r="G86" t="n">
-        <v>49500</v>
+      <c r="H86" t="n">
+        <v>9003</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Accessery</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bags</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4618</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2</v>
+        <v>10115</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
       </c>
       <c r="G87" t="n">
-        <v>9236</v>
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>10115</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Mafate</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29700</v>
-      </c>
-      <c r="F88" t="n">
-        <v>3</v>
+        <v>672</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
       </c>
       <c r="G88" t="n">
-        <v>89100</v>
+        <v>2</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1344</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Caps</t>
+          <t>Outer</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4466</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1</v>
+        <v>13855</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
       </c>
       <c r="G89" t="n">
-        <v>4466</v>
+        <v>2</v>
+      </c>
+      <c r="H89" t="n">
+        <v>27710</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Shoes</t>
+          <t>Accessery</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>15400</v>
-      </c>
-      <c r="F90" t="n">
-        <v>3</v>
+        <v>11884</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
       </c>
       <c r="G90" t="n">
-        <v>46200</v>
+        <v>2</v>
+      </c>
+      <c r="H90" t="n">
+        <v>23768</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Caps</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4723</v>
-      </c>
-      <c r="F91" t="n">
+        <v>1287</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
         <v>2</v>
       </c>
-      <c r="G91" t="n">
-        <v>9446</v>
+      <c r="H91" t="n">
+        <v>2574</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4204,81 +4618,96 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1364</v>
-      </c>
-      <c r="F92" t="n">
+        <v>2249</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
         <v>2</v>
       </c>
-      <c r="G92" t="n">
-        <v>2728</v>
+      <c r="H92" t="n">
+        <v>4498</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Gel-Nunobiki</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>7486</v>
-      </c>
-      <c r="F93" t="n">
-        <v>3</v>
+        <v>15400</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
       </c>
       <c r="G93" t="n">
-        <v>22458</v>
+        <v>2</v>
+      </c>
+      <c r="H93" t="n">
+        <v>30800</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HOKA</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Accessery</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Jacket</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>17072</v>
-      </c>
-      <c r="F94" t="n">
+        <v>4526</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
         <v>3</v>
       </c>
-      <c r="G94" t="n">
-        <v>51216</v>
+      <c r="H94" t="n">
+        <v>13578</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4288,188 +4717,218 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Jacket</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10539</v>
-      </c>
-      <c r="F95" t="n">
+        <v>3319</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
         <v>1</v>
       </c>
-      <c r="G95" t="n">
-        <v>10539</v>
+      <c r="H95" t="n">
+        <v>3319</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>Asics</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Outer</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2050</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2</v>
+        <v>11816</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
       </c>
       <c r="G96" t="n">
-        <v>4100</v>
+        <v>3</v>
+      </c>
+      <c r="H96" t="n">
+        <v>35448</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Bags</t>
+          <t>Cloudmonster</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>8327</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
+        <v>24200</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Black/Red</t>
+        </is>
       </c>
       <c r="G97" t="n">
-        <v>8327</v>
+        <v>3</v>
+      </c>
+      <c r="H97" t="n">
+        <v>72600</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>HOKA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Accessery</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Caps</t>
+          <t>Transport 2</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2148</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
+        <v>22000</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Black/White</t>
+        </is>
       </c>
       <c r="G98" t="n">
-        <v>2148</v>
+        <v>2</v>
+      </c>
+      <c r="H98" t="n">
+        <v>44000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>HOKA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Outer</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>17306</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
+        <v>4682</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
       </c>
       <c r="G99" t="n">
-        <v>17306</v>
+        <v>2</v>
+      </c>
+      <c r="H99" t="n">
+        <v>9364</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Shoes</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Tops</t>
+          <t>Gazelle</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>19465</v>
-      </c>
-      <c r="F100" t="n">
-        <v>2</v>
+        <v>15400</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
       </c>
       <c r="G100" t="n">
-        <v>38930</v>
+        <v>1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>15400</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Asics</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4479,17 +4938,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Gel-Nimbus</t>
+          <t>Air Force1</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20900</v>
-      </c>
-      <c r="F101" t="n">
-        <v>2</v>
+        <v>16500</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
       </c>
       <c r="G101" t="n">
-        <v>41800</v>
+        <v>3</v>
+      </c>
+      <c r="H101" t="n">
+        <v>49500</v>
       </c>
     </row>
   </sheetData>
